--- a/data/trans_dic/P16A13-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A13-Estudios-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.06184345567421951</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.1560526291217778</v>
+        <v>0.1560526291217777</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03459282347007601</v>
+        <v>0.03388405571061019</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.05376969132668648</v>
+        <v>0.05362352256941143</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03389465771824487</v>
+        <v>0.03312508817670207</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.09929674847995876</v>
+        <v>0.09942336390536276</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.04342244584898482</v>
+        <v>0.04343612772778704</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.06781976285383404</v>
+        <v>0.06779218201996569</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.05708537090466239</v>
+        <v>0.05869319183798376</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.159785274695143</v>
+        <v>0.1608995750089828</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.04269738046191696</v>
+        <v>0.04253141651044939</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.06618786115591943</v>
+        <v>0.06622535763310579</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.05057180505239101</v>
+        <v>0.05077065545084902</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1403697312171434</v>
+        <v>0.1411684760335606</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.06275801257520003</v>
+        <v>0.05959319224177067</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.08740775372290589</v>
+        <v>0.08672303212124748</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.06356928718481406</v>
+        <v>0.06273349498985081</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.146572337759343</v>
+        <v>0.1487676461619866</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.06883253707989999</v>
+        <v>0.06847229840604163</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.09690064708316211</v>
+        <v>0.09761710625865408</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.09361181341751067</v>
+        <v>0.09494800031261826</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1996323107333606</v>
+        <v>0.2000042988693592</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.06016206201438334</v>
+        <v>0.06114078795309671</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.08870090695591318</v>
+        <v>0.08891422691352328</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.07467954205024761</v>
+        <v>0.07350701550690754</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1715336016453157</v>
+        <v>0.1733664413820857</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.02666267302992668</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.05931767468561799</v>
+        <v>0.059317674685618</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.02009433569425274</v>
@@ -833,7 +833,7 @@
         <v>0.0250565220736635</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.05359725320920104</v>
+        <v>0.05359725320920103</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.008900903238299588</v>
+        <v>0.009188809745689478</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02150542243455749</v>
+        <v>0.02161461788336501</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01700561515570429</v>
+        <v>0.01743852641461382</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.03986180949073529</v>
+        <v>0.04084284581673243</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01922747403760105</v>
+        <v>0.01942407575278492</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.02458972075361169</v>
+        <v>0.02346822443682825</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01965899101201262</v>
+        <v>0.02026246908828185</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.05195605384186748</v>
+        <v>0.05150328226399233</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01533669653174556</v>
+        <v>0.01537946252884842</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.02436899233887198</v>
+        <v>0.02454027996184736</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.02019259656791685</v>
+        <v>0.0202474079805463</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.04840125899389451</v>
+        <v>0.04774954248305292</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.0214139863145121</v>
+        <v>0.0208727179647816</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0377613612117724</v>
+        <v>0.03788594676051981</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03109213892993386</v>
+        <v>0.03131772097155504</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.05721221824596073</v>
+        <v>0.05797483517327137</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.03492920412718225</v>
+        <v>0.03539278907574434</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.04266793053435545</v>
+        <v>0.04191304705275956</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.03417918044829951</v>
+        <v>0.03505478773120962</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.06797770803527606</v>
+        <v>0.06700252042788603</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.02560646768012846</v>
+        <v>0.02542152269439125</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.03662714517228818</v>
+        <v>0.03650229907660139</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.03082986951861666</v>
+        <v>0.03125478938979556</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.0600983584107179</v>
+        <v>0.06019692571491654</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.02692923695204619</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.05927295507550127</v>
+        <v>0.05927295507550126</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.01435951931633375</v>
@@ -969,7 +969,7 @@
         <v>0.02959787708682639</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.05379360095551569</v>
+        <v>0.05379360095551567</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01715158784598027</v>
+        <v>0.01640841278342454</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02092091292235793</v>
+        <v>0.02090613911049716</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01383666245318489</v>
+        <v>0.01440280290682273</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.0446579837100402</v>
+        <v>0.04445306240465019</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.006232469078846629</v>
+        <v>0.006129299230313415</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.0322681264391981</v>
+        <v>0.03410558879777389</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.0179782783962605</v>
+        <v>0.01893665336328306</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.0368236468641977</v>
+        <v>0.03727406087045511</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.0146223113944173</v>
+        <v>0.01338892482581799</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.03066523308468633</v>
+        <v>0.03221492877152035</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.02020083573856255</v>
+        <v>0.0193885628013461</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.04396928995526007</v>
+        <v>0.04528609848753083</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04653784335758856</v>
+        <v>0.0458915589589397</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.0672982541682014</v>
+        <v>0.06571397494275563</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04655700030283157</v>
+        <v>0.04490514603818595</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.07734373516874553</v>
+        <v>0.07618048256832798</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.02910076454778907</v>
+        <v>0.02824011129422762</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.08113039944508933</v>
+        <v>0.07865760538162817</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.05195837678341236</v>
+        <v>0.0543480593755002</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.06246799069440979</v>
+        <v>0.06374472223205345</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.03362502860528704</v>
+        <v>0.03141365544946564</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.06096455683988585</v>
+        <v>0.06498022830069448</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.0426790216364575</v>
+        <v>0.04228580735122872</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.06463499717448563</v>
+        <v>0.06564284758216211</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.03508848641702214</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.07340039125133796</v>
+        <v>0.07340039125133797</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02139506969541165</v>
+        <v>0.02159167173352537</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03425593238720545</v>
+        <v>0.03415188721582024</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02383023968734853</v>
+        <v>0.02381272306060287</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.05592532291931877</v>
+        <v>0.05548892860120599</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.0300568579742511</v>
+        <v>0.02958611464338556</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.0464033113434955</v>
+        <v>0.04643715029687353</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.03399414565379917</v>
+        <v>0.03389506951952859</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.07701557843668547</v>
+        <v>0.07744226073739394</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02722938413961876</v>
+        <v>0.02689977386107404</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.04255014599801047</v>
+        <v>0.0422243537685695</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.03076265661321306</v>
+        <v>0.03031875028606944</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.06862008912141382</v>
+        <v>0.06854968610438886</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.0333456897099232</v>
+        <v>0.03283219483305003</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04896134050419967</v>
+        <v>0.04900882056746055</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03570905751190581</v>
+        <v>0.03570400887210586</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.07074729104523481</v>
+        <v>0.07048388444524628</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.04236896210187479</v>
+        <v>0.04269586779432826</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.06229801413788419</v>
+        <v>0.06183255421022704</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.04806563271600605</v>
+        <v>0.04779392524363326</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.09086986622831771</v>
+        <v>0.09120538531140973</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.03520760302642681</v>
+        <v>0.03590966422165227</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.05307504178867577</v>
+        <v>0.0528896850124065</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.04029236390663623</v>
+        <v>0.03919291836586064</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.07890716971238432</v>
+        <v>0.07883883632377175</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>35690</v>
+        <v>34959</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>52075</v>
+        <v>51933</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>25568</v>
+        <v>24988</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>57348</v>
+        <v>57421</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>57105</v>
+        <v>57123</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>90439</v>
+        <v>90403</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>56781</v>
+        <v>58380</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>131042</v>
+        <v>131956</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>100204</v>
+        <v>99814</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>152365</v>
+        <v>152451</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>88450</v>
+        <v>88798</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>196189</v>
+        <v>197305</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>64749</v>
+        <v>61484</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>84652</v>
+        <v>83989</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>47953</v>
+        <v>47323</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>84652</v>
+        <v>85920</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>90523</v>
+        <v>90049</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>129220</v>
+        <v>130175</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>93112</v>
+        <v>94441</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>163722</v>
+        <v>164027</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>141190</v>
+        <v>143487</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>204190</v>
+        <v>204681</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>130615</v>
+        <v>128564</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>239745</v>
+        <v>242307</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>15064</v>
+        <v>15551</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>42151</v>
+        <v>42365</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>35310</v>
+        <v>36209</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>88914</v>
+        <v>91103</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>30527</v>
+        <v>30839</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>43077</v>
+        <v>41113</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>39088</v>
+        <v>40288</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>112781</v>
+        <v>111799</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>50305</v>
+        <v>50446</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>90455</v>
+        <v>91090</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>82077</v>
+        <v>82299</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>213027</v>
+        <v>210159</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>36241</v>
+        <v>35325</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>74013</v>
+        <v>74257</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>64559</v>
+        <v>65028</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>127616</v>
+        <v>129317</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>55456</v>
+        <v>56192</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>74748</v>
+        <v>73425</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>67958</v>
+        <v>69699</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>147560</v>
+        <v>145443</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>83991</v>
+        <v>83384</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>135955</v>
+        <v>135492</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>125314</v>
+        <v>127041</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>264509</v>
+        <v>264943</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>9458</v>
+        <v>9048</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>10049</v>
+        <v>10042</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>7567</v>
+        <v>7877</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>31778</v>
+        <v>31632</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>2969</v>
+        <v>2920</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>14768</v>
+        <v>15609</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>9873</v>
+        <v>10399</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>27061</v>
+        <v>27392</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>15029</v>
+        <v>13761</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>28764</v>
+        <v>30217</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>22141</v>
+        <v>21250</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>63600</v>
+        <v>65505</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>25661</v>
+        <v>25305</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>32326</v>
+        <v>31565</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>25461</v>
+        <v>24558</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>55037</v>
+        <v>54209</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>13864</v>
+        <v>13454</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>37130</v>
+        <v>35998</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>28532</v>
+        <v>29845</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>45906</v>
+        <v>46845</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>34560</v>
+        <v>32288</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>57184</v>
+        <v>60951</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>46777</v>
+        <v>46346</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>93492</v>
+        <v>94950</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>70080</v>
+        <v>70724</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>116773</v>
+        <v>116418</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>80489</v>
+        <v>80430</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>196840</v>
+        <v>195304</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>101568</v>
+        <v>99977</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>164408</v>
+        <v>164528</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>120071</v>
+        <v>119721</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>286937</v>
+        <v>288527</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>181204</v>
+        <v>179011</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>295803</v>
+        <v>293538</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>212561</v>
+        <v>209494</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>497180</v>
+        <v>496670</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>109225</v>
+        <v>107543</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>166901</v>
+        <v>167063</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>120612</v>
+        <v>120595</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>249009</v>
+        <v>248082</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>143173</v>
+        <v>144278</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>220724</v>
+        <v>219075</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>169773</v>
+        <v>168813</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>338554</v>
+        <v>339804</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>234297</v>
+        <v>238969</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>368970</v>
+        <v>367682</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>278409</v>
+        <v>270812</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>571714</v>
+        <v>571219</v>
       </c>
     </row>
     <row r="20">
